--- a/server/marker-template/Marker_Template.xlsx
+++ b/server/marker-template/Marker_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\marker-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\marker-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20937AAD-B1CA-478C-AADB-0F316D6CAC00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marker_set_template" sheetId="2" r:id="rId1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -469,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +532,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -555,7 +556,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -578,7 +579,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -601,7 +602,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -624,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -647,7 +648,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
